--- a/js/dataBase/dbManagerUse.xlsx
+++ b/js/dataBase/dbManagerUse.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hesham\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hesham\Desktop\BidStory\js\dataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BCC8D9-58A8-406B-B163-30B6D9ADA804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4B28CF-27FC-4DA1-AAA0-57D803E1D1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15990" windowHeight="20640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,18 +245,12 @@
     <t>تصدير قاعدة البيانات كاملة مع هيكلها وبياناتها إلى JSON</t>
   </si>
   <si>
-    <t>const backup = await exportEntireDatabase('myDB');</t>
-  </si>
-  <si>
     <t>importEntireDatabase</t>
   </si>
   <si>
     <t>استيراد قاعدة بيانات كاملة من JSON (هيكل + بيانات)</t>
   </si>
   <si>
-    <t>await importEntireDatabase(backupJSON);</t>
-  </si>
-  <si>
     <t>deleteTable</t>
   </si>
   <si>
@@ -276,6 +270,16 @@
   </si>
   <si>
     <t>functions for all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">const backup = await exportEntireDatabase('myDB');let table_ = await exportTableWithSchemaAndData( getVal( 'dbName' ), getVal( 'tableName' ) );
+    document.getElementById( 'output1' ).value = JSON.stringify( table_, null, 2 );
+</t>
+  </si>
+  <si>
+    <t>const jsonString = document.getElementById('output1').value;
+  const jsonData = JSON.parse(jsonString);
+  await importOrUpdateFromJSON(jsonData);await importEntireDatabase(backupJSON);</t>
   </si>
 </sst>
 </file>
@@ -369,13 +373,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -392,25 +396,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -500,6 +485,9 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="medium">
+          <color rgb="FFA3A3A3"/>
+        </top>
         <bottom style="medium">
           <color rgb="FFA3A3A3"/>
         </bottom>
@@ -507,13 +495,29 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="medium">
-          <color rgb="FFA3A3A3"/>
-        </top>
         <bottom style="medium">
           <color rgb="FFA3A3A3"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -529,12 +533,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F1B647CD-7029-4FC0-99AA-6399B587C5C6}" name="Table2" displayName="Table2" ref="A1:C10" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F1B647CD-7029-4FC0-99AA-6399B587C5C6}" name="Table2" displayName="Table2" ref="A1:C10" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A1:C10" xr:uid="{F1B647CD-7029-4FC0-99AA-6399B587C5C6}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{96778ED7-80C8-4F96-95B0-84BB285AD68A}" name="اسم الدالة" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{ACF5CBA6-2F82-4BC1-BBB2-5A984CED4A1E}" name="الوصف" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{D77743FA-AB1A-4C15-9C13-F1B3887996AB}" name="مثال الاستخدام" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{96778ED7-80C8-4F96-95B0-84BB285AD68A}" name="اسم الدالة" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{ACF5CBA6-2F82-4BC1-BBB2-5A984CED4A1E}" name="الوصف" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{D77743FA-AB1A-4C15-9C13-F1B3887996AB}" name="مثال الاستخدام" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -806,7 +810,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -972,12 +976,12 @@
     </row>
     <row r="15" spans="1:3" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
     </row>
-    <row r="16" spans="1:3" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
@@ -985,40 +989,40 @@
         <v>44</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="C17" s="4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20.25" x14ac:dyDescent="0.2">
